--- a/colbert/output/Results_colbert_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_extraQuestions.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50184</v>
+        <v>51922</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51922</v>
+        <v>50184</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>251800</v>
+        <v>293049</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>tasty dish s    heffalumps and woozles</t>
+          <t>wicked  chocolate chip muffins</t>
         </is>
       </c>
     </row>
@@ -627,11 +627,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>124286</v>
+        <v>251800</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100 chocolate cake</t>
+          <t>tasty dish s    heffalumps and woozles</t>
         </is>
       </c>
     </row>
@@ -652,11 +652,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>86768</v>
+        <v>124286</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>perfect  chocolate frosting</t>
+          <t>100 chocolate cake</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>134086</v>
+        <v>86768</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>jello  chocolate pudding pops</t>
+          <t>perfect  chocolate frosting</t>
         </is>
       </c>
     </row>
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81280</v>
+        <v>134086</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>those  chocolate cookies</t>
+          <t>jello  chocolate pudding pops</t>
         </is>
       </c>
     </row>
@@ -1177,11 +1177,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>124286</v>
+        <v>204122</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>100 chocolate cake</t>
+          <t>johnny depp in a bundt pan   a k a black russian cake</t>
         </is>
       </c>
     </row>
@@ -1202,11 +1202,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>177187</v>
+        <v>124286</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>250 chocolate chip cookies recipe</t>
+          <t>100 chocolate cake</t>
         </is>
       </c>
     </row>
@@ -1252,11 +1252,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>292317</v>
+        <v>177187</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ibarra  hot chocolate lovers</t>
+          <t>250 chocolate chip cookies recipe</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>177187</v>
+        <v>402246</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>250 chocolate chip cookies recipe</t>
+          <t>10 minute chocolate self saucing pudding</t>
         </is>
       </c>
     </row>
@@ -1302,11 +1302,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>402246</v>
+        <v>406331</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10 minute chocolate self saucing pudding</t>
+          <t>healthified  decadent hot chocolate</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>406331</v>
+        <v>85434</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>healthified  decadent hot chocolate</t>
+          <t>10 minute rocky road</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>484992</v>
+        <v>317587</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>navajo style  peach crisp  vegan friendly</t>
+          <t>15 minute florentine pasta salad</t>
         </is>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>115160</v>
+        <v>484992</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15 layer russian honey cake</t>
+          <t>navajo style  peach crisp  vegan friendly</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>392150</v>
+        <v>251021</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>elmer s  summertime sweet onion salsa</t>
+          <t>white  sangria</t>
         </is>
       </c>
     </row>
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>84797</v>
+        <v>157487</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>almost  outback steakhouse shrimp sauce</t>
         </is>
       </c>
     </row>
@@ -1527,11 +1527,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>250883</v>
+        <v>257409</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>margarita  dip for fresh  or grilled fruit</t>
+          <t>the mooch     zucchini sandwich</t>
         </is>
       </c>
     </row>
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>276330</v>
+        <v>54100</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1 2 3 hors d oeuvres</t>
+          <t>grilled  venison burgers</t>
         </is>
       </c>
     </row>
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>257409</v>
+        <v>371549</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>the mooch     zucchini sandwich</t>
+          <t>little kick  jalapeno burgers</t>
         </is>
       </c>
     </row>
@@ -1602,11 +1602,11 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>113197</v>
+        <v>185088</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15 minute chicken fajitas</t>
+          <t>10 minute baked ziti</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>262448</v>
+        <v>24514</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17 twist</t>
+          <t>1 000 artichoke hearts</t>
         </is>
       </c>
     </row>
@@ -1652,11 +1652,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>181808</v>
+        <v>306168</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sexy  sauce</t>
+          <t>412 broccoli casserole</t>
         </is>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>198660</v>
+        <v>39959</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>fake  crab stroganoff</t>
+          <t>calm your nerves  tonic</t>
         </is>
       </c>
     </row>
@@ -1702,11 +1702,11 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>407659</v>
+        <v>90499</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>un refried beans</t>
+          <t>10 minute smothered chicken</t>
         </is>
       </c>
     </row>
@@ -1727,11 +1727,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>320708</v>
+        <v>356884</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>i don t have any tahini  hummus</t>
+          <t>amerikaner   german vanilla biscuit</t>
         </is>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>436082</v>
+        <v>454621</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>the best  vegetarian vegan vegetable samosas</t>
+          <t>muffalata  sandwich by any name tastes great</t>
         </is>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>18537</v>
+        <v>24137</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>wait forever  pork chops</t>
+          <t>voodoo   calamari ink  pasta</t>
         </is>
       </c>
     </row>
@@ -1802,11 +1802,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>340730</v>
+        <v>75452</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>tomato  sauce</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -1827,11 +1827,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>11363</v>
+        <v>444320</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>denny s  vegetable beef barley soup</t>
+          <t>loco moco  style hamburger steak with gravy</t>
         </is>
       </c>
     </row>
@@ -1902,11 +1902,11 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>208179</v>
+        <v>289671</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>300 icing</t>
+          <t>almost  starbucks frappuccino</t>
         </is>
       </c>
     </row>
@@ -1927,11 +1927,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>289671</v>
+        <v>222030</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>almost  starbucks frappuccino</t>
+          <t>soft serve  vanilla ice cream</t>
         </is>
       </c>
     </row>
@@ -1952,11 +1952,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>222030</v>
+        <v>30473</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>soft serve  vanilla ice cream</t>
+          <t>denauseating  with ginger tea</t>
         </is>
       </c>
     </row>
@@ -2327,11 +2327,11 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>152261</v>
+        <v>152259</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>jamba juice at home   lime it up  smoothie</t>
+          <t>jamba juice at home  strawberries wild  smoothie</t>
         </is>
       </c>
     </row>
@@ -2877,11 +2877,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>226246</v>
+        <v>41673</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>golden circle     pineapple upside down cake</t>
+          <t>15 minute chili sauce</t>
         </is>
       </c>
     </row>
@@ -2902,11 +2902,11 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>44123</v>
+        <v>460846</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>fooled me  flourless peanut butter cookies</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2927,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>367987</v>
+        <v>377326</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>fraicheur  vinaigrette</t>
+          <t>1 2 3 peanut butter cookies</t>
         </is>
       </c>
     </row>
@@ -2952,11 +2952,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>187843</v>
+        <v>361328</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1 pound gluten free lasagna</t>
+          <t>balalit  saweeya or seviyan  sweet vermicelli breakfast</t>
         </is>
       </c>
     </row>
@@ -2977,11 +2977,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>441744</v>
+        <v>272869</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>cream of whatever  soup</t>
+          <t>10 minute sponge pudding</t>
         </is>
       </c>
     </row>
@@ -3002,11 +3002,11 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>427872</v>
+        <v>285568</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1 minute  no bake  chocolatey cereal bites</t>
+          <t>philly  roll sushi</t>
         </is>
       </c>
     </row>
@@ -3027,11 +3027,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>262448</v>
+        <v>427872</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>17 twist</t>
+          <t>1 minute  no bake  chocolatey cereal bites</t>
         </is>
       </c>
     </row>
@@ -3052,11 +3052,11 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>206648</v>
+        <v>176717</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1 2 3 hot chocolate</t>
+          <t>fake   blueberry cheesecake</t>
         </is>
       </c>
     </row>
@@ -3077,11 +3077,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>30300</v>
+        <v>357497</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>chmeur s  pudding</t>
         </is>
       </c>
     </row>
@@ -3102,11 +3102,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>113150</v>
+        <v>389560</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>cheeseburger stuffed  french bread</t>
+          <t>10 minute pizza snacks</t>
         </is>
       </c>
     </row>
@@ -3127,11 +3127,11 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>20186</v>
+        <v>287778</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>geebee special  sandwiches</t>
+          <t>jiffy  deluxe pizza sticks</t>
         </is>
       </c>
     </row>
@@ -3152,11 +3152,11 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>389560</v>
+        <v>207743</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10 minute pizza snacks</t>
+          <t>pita the great    tuna salad</t>
         </is>
       </c>
     </row>
@@ -3177,11 +3177,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>141738</v>
+        <v>52565</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>10 10 10 bread</t>
+          <t>somebody stole my cookie  cookies</t>
         </is>
       </c>
     </row>
@@ -3202,11 +3202,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>359972</v>
+        <v>221049</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1 minute  no bake  cereal bar</t>
+          <t>leftover  lo mein for two</t>
         </is>
       </c>
     </row>
@@ -3302,11 +3302,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>112959</v>
+        <v>95534</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>sour cream  avocado dip  vegan</t>
+          <t>da best  chicago style italian beef</t>
         </is>
       </c>
     </row>
@@ -3352,11 +3352,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>299989</v>
+        <v>532472</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>chipotle  style chicken burrito bowls</t>
+          <t>west african s finest  mafe</t>
         </is>
       </c>
     </row>
@@ -3377,11 +3377,11 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>353044</v>
+        <v>299989</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>greens to go  smoothie</t>
+          <t>chipotle  style chicken burrito bowls</t>
         </is>
       </c>
     </row>
@@ -3402,11 +3402,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>374271</v>
+        <v>84797</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1 potato 2 potato</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -3427,11 +3427,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>354047</v>
+        <v>8559</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>marco    polenta</t>
+          <t>chinese  chop suey</t>
         </is>
       </c>
     </row>
@@ -3452,11 +3452,11 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>140855</v>
+        <v>54272</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>meal in a bowl   guacamole salad</t>
+          <t>fool the meat eaters  chili</t>
         </is>
       </c>
     </row>
@@ -3527,11 +3527,11 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>75079</v>
+        <v>157657</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>15 minute stroganoff</t>
+          <t>chicken cheddar crepes with  mushrooms</t>
         </is>
       </c>
     </row>
@@ -3552,11 +3552,11 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>157657</v>
+        <v>291073</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>chicken cheddar crepes with  mushrooms</t>
+          <t>sherried  mushroom sauce</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>291073</v>
+        <v>535020</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>sherried  mushroom sauce</t>
+          <t>buffalo wing  mushrooms</t>
         </is>
       </c>
     </row>
@@ -3652,11 +3652,11 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>408303</v>
+        <v>198660</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>orange  soup</t>
+          <t>fake  crab stroganoff</t>
         </is>
       </c>
     </row>
@@ -3677,11 +3677,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>69190</v>
+        <v>408303</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ara s potato  oup</t>
+          <t>orange  soup</t>
         </is>
       </c>
     </row>
@@ -3702,11 +3702,11 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>117116</v>
+        <v>140746</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>company s coming  rice</t>
+          <t>the best   beef stroganoff</t>
         </is>
       </c>
     </row>
@@ -3977,11 +3977,11 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>506885</v>
+        <v>436082</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>15 minute creamy sun tomato basil cashew pasta</t>
+          <t>the best  vegetarian vegan vegetable samosas</t>
         </is>
       </c>
     </row>
@@ -4002,11 +4002,11 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>30300</v>
+        <v>24701</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>munch without guilt  tomatoes</t>
+          <t>cream  of spinach soup  vegan</t>
         </is>
       </c>
     </row>
@@ -4027,11 +4027,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>436082</v>
+        <v>35595</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>the best  vegetarian vegan vegetable samosas</t>
+          <t>pour over anything  mushroom gravy</t>
         </is>
       </c>
     </row>
@@ -4052,11 +4052,11 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>24701</v>
+        <v>385823</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>cream  of spinach soup  vegan</t>
+          <t>akwa   traditional yemeni oxtail stew</t>
         </is>
       </c>
     </row>
@@ -4077,11 +4077,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>35595</v>
+        <v>164526</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>pour over anything  mushroom gravy</t>
+          <t>cream   of pumpkin or squash soup  vegan</t>
         </is>
       </c>
     </row>
@@ -4227,11 +4227,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>354039</v>
+        <v>244971</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>quick and healthy picker uppers apple treats</t>
+          <t>10 min cheesy gnocchi with seafood sauce</t>
         </is>
       </c>
     </row>
@@ -4252,11 +4252,11 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>172651</v>
+        <v>391390</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>15 minute pasta combo</t>
+          <t>green  soup</t>
         </is>
       </c>
     </row>
@@ -4277,11 +4277,11 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>391390</v>
+        <v>90499</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>green  soup</t>
+          <t>10 minute smothered chicken</t>
         </is>
       </c>
     </row>
@@ -4302,11 +4302,11 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>90499</v>
+        <v>63793</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10 minute smothered chicken</t>
+          <t>tide me over   indian chaat  simple veggie salad</t>
         </is>
       </c>
     </row>
@@ -4377,11 +4377,11 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>363904</v>
+        <v>116741</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>pancakes  in a bowl</t>
+          <t>tastes like   v 8 juice</t>
         </is>
       </c>
     </row>
@@ -4402,11 +4402,11 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>116741</v>
+        <v>286484</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>tastes like   v 8 juice</t>
+          <t>tasty dish s   banana pudding in 2 minutes</t>
         </is>
       </c>
     </row>
@@ -4427,11 +4427,11 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>106902</v>
+        <v>358003</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>i wanna live with a  cinnamon  girl  honey</t>
+          <t>100 calorie cinnamon raisin oatmeal for one   microwave</t>
         </is>
       </c>
     </row>
@@ -4452,11 +4452,11 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>358003</v>
+        <v>353044</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>100 calorie cinnamon raisin oatmeal for one   microwave</t>
+          <t>greens to go  smoothie</t>
         </is>
       </c>
     </row>
@@ -4552,11 +4552,11 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>473002</v>
+        <v>256734</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>almost  my grandma s rouladen   melissa d arabian</t>
+          <t>oopah    feta chicken breasts</t>
         </is>
       </c>
     </row>
@@ -4602,11 +4602,11 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>418387</v>
+        <v>487173</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>100  whole wheat bread  plain and simple  no knead</t>
+          <t>5 minute bread  pizza</t>
         </is>
       </c>
     </row>
@@ -4627,11 +4627,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>487173</v>
+        <v>287778</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5 minute bread  pizza</t>
+          <t>jiffy  deluxe pizza sticks</t>
         </is>
       </c>
     </row>
@@ -4652,11 +4652,11 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>287778</v>
+        <v>31490</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>jiffy  deluxe pizza sticks</t>
+          <t>a bit different  breakfast pizza</t>
         </is>
       </c>
     </row>
@@ -4677,11 +4677,11 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>31490</v>
+        <v>436030</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>a bit different  breakfast pizza</t>
+          <t>100  whole wheat pizza dough and pizza tips</t>
         </is>
       </c>
     </row>
@@ -4702,11 +4702,11 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>436030</v>
+        <v>190411</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>100  whole wheat pizza dough and pizza tips</t>
+          <t>1 dish pizza bake</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>235173</v>
+        <v>377326</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>hot tamale  burgers</t>
+          <t>1 2 3 peanut butter cookies</t>
         </is>
       </c>
     </row>
@@ -4802,11 +4802,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>291409</v>
+        <v>235173</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>15 minute vegetarian chili</t>
+          <t>hot tamale  burgers</t>
         </is>
       </c>
     </row>
@@ -4827,11 +4827,11 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>436082</v>
+        <v>248672</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>the best  vegetarian vegan vegetable samosas</t>
+          <t>10 minute  fat free  veggie soup for one</t>
         </is>
       </c>
     </row>
@@ -4877,11 +4877,11 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>59515</v>
+        <v>58321</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>i don t believe it s      lemon tofu cheesecake</t>
+          <t>1 1 2 ingredient fiber crust</t>
         </is>
       </c>
     </row>
@@ -4902,11 +4902,11 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>169849</v>
+        <v>286624</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>10 grain sorta healthy cookies</t>
+          <t>10 minute valentines candies</t>
         </is>
       </c>
     </row>
@@ -4927,11 +4927,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>185799</v>
+        <v>59515</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>splenda   d  cheesecake sugar free low carb</t>
+          <t>i don t believe it s      lemon tofu cheesecake</t>
         </is>
       </c>
     </row>
@@ -4952,11 +4952,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>223349</v>
+        <v>169849</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>pasta  with shrimp   eggplant</t>
+          <t>10 grain sorta healthy cookies</t>
         </is>
       </c>
     </row>
@@ -5127,11 +5127,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>218671</v>
+        <v>160077</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>100  whole wheat buttermilk pancakes</t>
+          <t>aunt johnnie s   pound cake</t>
         </is>
       </c>
     </row>
@@ -5152,11 +5152,11 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>357497</v>
+        <v>218671</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>chmeur s  pudding</t>
+          <t>100  whole wheat buttermilk pancakes</t>
         </is>
       </c>
     </row>
@@ -5177,11 +5177,11 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>169849</v>
+        <v>357497</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>10 grain sorta healthy cookies</t>
+          <t>chmeur s  pudding</t>
         </is>
       </c>
     </row>
@@ -5202,11 +5202,11 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>71457</v>
+        <v>169849</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>rise and shine  german fruit pancake</t>
+          <t>10 grain sorta healthy cookies</t>
         </is>
       </c>
     </row>
@@ -5452,11 +5452,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>111875</v>
+        <v>400273</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>the elvis  smoothie</t>
+          <t>guilt free ice cream wannabe</t>
         </is>
       </c>
     </row>
@@ -5652,11 +5652,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>361328</v>
+        <v>140746</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>balalit  saweeya or seviyan  sweet vermicelli breakfast</t>
+          <t>the best   beef stroganoff</t>
         </is>
       </c>
     </row>
@@ -5677,11 +5677,11 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>285568</v>
+        <v>449891</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>philly  roll sushi</t>
+          <t>add adjective here  apple crisp</t>
         </is>
       </c>
     </row>
@@ -5702,11 +5702,11 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>385823</v>
+        <v>361328</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>akwa   traditional yemeni oxtail stew</t>
+          <t>balalit  saweeya or seviyan  sweet vermicelli breakfast</t>
         </is>
       </c>
     </row>
@@ -5902,11 +5902,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>31184</v>
+        <v>35653</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>15 minute shrimp scampi</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
@@ -5927,11 +5927,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>24514</v>
+        <v>137739</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>1 000 artichoke hearts</t>
+          <t>arriba   baked winter squash mexican style</t>
         </is>
       </c>
     </row>
@@ -5952,11 +5952,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>20624</v>
+        <v>8559</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>15 minute garlic lemon chicken</t>
+          <t>chinese  chop suey</t>
         </is>
       </c>
     </row>
